--- a/Back-end/Dados Integrador/histórico.xlsx
+++ b/Back-end/Dados Integrador/histórico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\2DSTB-12\Disciplinas\PWBE\Integrador\Dados Integrador\Dados Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f92f199fa3951452/Área de Trabalho/Smart city/Smart_city/Back-end/Dados Integrador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155ECD4-2317-4D6D-A37A-0E6E34E803E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2155ECD4-2317-4D6D-A37A-0E6E34E803E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E92E64C1-2FA7-4C1D-92BF-E174BAC248BA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{E0D64BB0-119D-4F51-B493-12140F539A99}"/>
+    <workbookView xWindow="1005" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{E0D64BB0-119D-4F51-B493-12140F539A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1933,13 +1942,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA0D37C-CBA2-4B2A-8373-8B1BBE5A8626}">
   <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="F493" sqref="F493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1960,10 +1970,11 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>802</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <f>ROW() + 140</f>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1974,10 +1985,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <f t="shared" ref="A3:A66" si="0">SUM(800,B3)</f>
+        <v>943</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <f t="shared" ref="B3:B66" si="1">ROW() + 140</f>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1988,10 +2001,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>944</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2002,10 +2017,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>945</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2016,10 +2033,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>946</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2030,10 +2049,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>947</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2044,10 +2065,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>948</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -2058,10 +2081,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>949</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2072,10 +2097,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>950</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2086,10 +2113,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>951</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2100,10 +2129,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>952</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -2114,10 +2145,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>953</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -2128,10 +2161,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>954</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2142,10 +2177,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>955</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -2156,10 +2193,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>956</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -2170,10 +2209,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>957</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2184,10 +2225,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>958</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -2198,10 +2241,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>959</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -2212,10 +2257,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>960</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -2226,10 +2273,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>961</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2240,10 +2289,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>962</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -2254,10 +2305,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>963</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -2268,10 +2321,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>964</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -2282,10 +2337,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>965</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -2296,10 +2353,12 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>966</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -2310,10 +2369,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>967</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2324,10 +2385,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>968</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2338,10 +2401,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>969</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -2352,10 +2417,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>970</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -2366,10 +2433,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>971</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>171</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -2380,10 +2449,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>972</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -2394,10 +2465,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>973</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -2408,10 +2481,12 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>974</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -2422,10 +2497,12 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>975</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -2436,10 +2513,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>976</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -2450,10 +2529,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>977</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -2464,10 +2545,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>978</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -2478,10 +2561,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>979</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -2492,10 +2577,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>980</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -2506,10 +2593,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>981</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -2520,10 +2609,12 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>982</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -2534,10 +2625,12 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>983</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -2548,10 +2641,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>984</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -2562,10 +2657,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>985</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>185</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -2576,10 +2673,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>986</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -2590,10 +2689,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>987</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -2604,10 +2705,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>988</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
@@ -2618,10 +2721,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>989</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
         <v>49</v>
@@ -2632,10 +2737,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>990</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -2646,10 +2753,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>991</v>
       </c>
       <c r="B51">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -2660,10 +2769,12 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>992</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <f t="shared" si="1"/>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -2674,10 +2785,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>993</v>
       </c>
       <c r="B53">
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
         <v>53</v>
@@ -2688,10 +2801,12 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>994</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -2702,10 +2817,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>995</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>195</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -2716,10 +2833,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>996</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <f t="shared" si="1"/>
+        <v>196</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -2730,10 +2849,12 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>997</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>197</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -2744,10 +2865,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>998</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <f t="shared" si="1"/>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -2758,10 +2881,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>999</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>199</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -2772,10 +2897,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
@@ -2786,10 +2913,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1001</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>201</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -2800,10 +2929,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>1002</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <f t="shared" si="1"/>
+        <v>202</v>
       </c>
       <c r="C62" t="s">
         <v>62</v>
@@ -2814,10 +2945,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1003</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -2828,10 +2961,12 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -2842,10 +2977,12 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>205</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
@@ -2856,10 +2993,12 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>1006</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>206</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
@@ -2870,10 +3009,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
+        <f t="shared" ref="A67:A130" si="2">SUM(800,B67)</f>
+        <v>1007</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <f t="shared" ref="B67:B130" si="3">ROW() + 140</f>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
@@ -2884,10 +3025,12 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1008</v>
       </c>
       <c r="B68">
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -2898,10 +3041,12 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1009</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
         <v>69</v>
@@ -2912,10 +3057,12 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1010</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <f t="shared" si="3"/>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
         <v>70</v>
@@ -2926,10 +3073,12 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1011</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
         <v>71</v>
@@ -2940,10 +3089,12 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1012</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -2954,10 +3105,12 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1013</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -2968,10 +3121,12 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1014</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
         <v>74</v>
@@ -2982,10 +3137,12 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1015</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
         <v>75</v>
@@ -2996,10 +3153,12 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>1016</v>
       </c>
       <c r="B76">
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
         <v>76</v>
@@ -3010,10 +3169,12 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1017</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
         <v>77</v>
@@ -3024,10 +3185,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1018</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <f t="shared" si="3"/>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
         <v>78</v>
@@ -3038,10 +3201,12 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1019</v>
       </c>
       <c r="B79">
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
         <v>79</v>
@@ -3052,10 +3217,12 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1020</v>
       </c>
       <c r="B80">
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
         <v>80</v>
@@ -3066,10 +3233,12 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1021</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>221</v>
       </c>
       <c r="C81" t="s">
         <v>81</v>
@@ -3080,10 +3249,12 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1022</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <f t="shared" si="3"/>
+        <v>222</v>
       </c>
       <c r="C82" t="s">
         <v>82</v>
@@ -3094,10 +3265,12 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1023</v>
       </c>
       <c r="B83">
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>223</v>
       </c>
       <c r="C83" t="s">
         <v>83</v>
@@ -3108,10 +3281,12 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1024</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
       <c r="C84" t="s">
         <v>84</v>
@@ -3122,10 +3297,12 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1025</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
         <v>85</v>
@@ -3136,10 +3313,12 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1026</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
         <v>86</v>
@@ -3150,10 +3329,12 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>1027</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
         <v>87</v>
@@ -3164,10 +3345,12 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1028</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <f t="shared" si="3"/>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
         <v>88</v>
@@ -3178,10 +3361,12 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1029</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>89</v>
@@ -3192,10 +3377,12 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>1030</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
         <v>90</v>
@@ -3206,10 +3393,12 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1031</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
         <v>91</v>
@@ -3220,10 +3409,12 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1032</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
         <v>92</v>
@@ -3234,10 +3425,12 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1033</v>
       </c>
       <c r="B93">
-        <v>92</v>
+        <f t="shared" si="3"/>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
         <v>93</v>
@@ -3248,10 +3441,12 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1034</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
       <c r="C94" t="s">
         <v>94</v>
@@ -3262,10 +3457,12 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1035</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <f t="shared" si="3"/>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
@@ -3276,10 +3473,12 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1036</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <f t="shared" si="3"/>
+        <v>236</v>
       </c>
       <c r="C96" t="s">
         <v>96</v>
@@ -3290,10 +3489,12 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1037</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <f t="shared" si="3"/>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
         <v>97</v>
@@ -3304,10 +3505,12 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1038</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <f t="shared" si="3"/>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
         <v>98</v>
@@ -3318,10 +3521,12 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1039</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <f t="shared" si="3"/>
+        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>99</v>
@@ -3332,10 +3537,12 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1040</v>
       </c>
       <c r="B100">
-        <v>99</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
         <v>100</v>
@@ -3346,10 +3553,12 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>1041</v>
       </c>
       <c r="B101">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
         <v>101</v>
@@ -3360,10 +3569,12 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1042</v>
       </c>
       <c r="B102">
-        <v>101</v>
+        <f t="shared" si="3"/>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
         <v>102</v>
@@ -3374,10 +3585,12 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>1043</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <f t="shared" si="3"/>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
         <v>103</v>
@@ -3388,10 +3601,12 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1044</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <f t="shared" si="3"/>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
         <v>104</v>
@@ -3402,10 +3617,12 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1045</v>
       </c>
       <c r="B105">
-        <v>104</v>
+        <f t="shared" si="3"/>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
         <v>105</v>
@@ -3416,10 +3633,12 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>1046</v>
       </c>
       <c r="B106">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
         <v>106</v>
@@ -3430,10 +3649,12 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1047</v>
       </c>
       <c r="B107">
-        <v>106</v>
+        <f t="shared" si="3"/>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
         <v>107</v>
@@ -3444,10 +3665,12 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1048</v>
       </c>
       <c r="B108">
-        <v>107</v>
+        <f t="shared" si="3"/>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>108</v>
@@ -3458,10 +3681,12 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1049</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <f t="shared" si="3"/>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
         <v>109</v>
@@ -3472,10 +3697,12 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1050</v>
       </c>
       <c r="B110">
-        <v>109</v>
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
         <v>110</v>
@@ -3486,10 +3713,12 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1051</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>111</v>
@@ -3500,10 +3729,12 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1052</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
         <v>112</v>
@@ -3514,10 +3745,12 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1053</v>
       </c>
       <c r="B113">
-        <v>112</v>
+        <f t="shared" si="3"/>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
         <v>113</v>
@@ -3528,10 +3761,12 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1054</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <f t="shared" si="3"/>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
         <v>114</v>
@@ -3542,10 +3777,12 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1055</v>
       </c>
       <c r="B115">
-        <v>114</v>
+        <f t="shared" si="3"/>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
         <v>115</v>
@@ -3556,10 +3793,12 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1056</v>
       </c>
       <c r="B116">
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
         <v>116</v>
@@ -3570,10 +3809,12 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>1057</v>
       </c>
       <c r="B117">
-        <v>116</v>
+        <f t="shared" si="3"/>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
         <v>117</v>
@@ -3584,10 +3825,12 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>1058</v>
       </c>
       <c r="B118">
-        <v>117</v>
+        <f t="shared" si="3"/>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
         <v>118</v>
@@ -3598,10 +3841,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1059</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <f t="shared" si="3"/>
+        <v>259</v>
       </c>
       <c r="C119" t="s">
         <v>119</v>
@@ -3612,10 +3857,12 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>1060</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>260</v>
       </c>
       <c r="C120" t="s">
         <v>120</v>
@@ -3626,10 +3873,12 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1061</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>261</v>
       </c>
       <c r="C121" t="s">
         <v>121</v>
@@ -3640,10 +3889,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1062</v>
       </c>
       <c r="B122">
-        <v>121</v>
+        <f t="shared" si="3"/>
+        <v>262</v>
       </c>
       <c r="C122" t="s">
         <v>122</v>
@@ -3654,10 +3905,12 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>1063</v>
       </c>
       <c r="B123">
-        <v>122</v>
+        <f t="shared" si="3"/>
+        <v>263</v>
       </c>
       <c r="C123" t="s">
         <v>123</v>
@@ -3668,10 +3921,12 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>1064</v>
       </c>
       <c r="B124">
-        <v>123</v>
+        <f t="shared" si="3"/>
+        <v>264</v>
       </c>
       <c r="C124" t="s">
         <v>124</v>
@@ -3682,10 +3937,12 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1065</v>
       </c>
       <c r="B125">
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>265</v>
       </c>
       <c r="C125" t="s">
         <v>125</v>
@@ -3696,10 +3953,12 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>1066</v>
       </c>
       <c r="B126">
-        <v>125</v>
+        <f t="shared" si="3"/>
+        <v>266</v>
       </c>
       <c r="C126" t="s">
         <v>126</v>
@@ -3710,10 +3969,12 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>1067</v>
       </c>
       <c r="B127">
-        <v>126</v>
+        <f t="shared" si="3"/>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
         <v>127</v>
@@ -3724,10 +3985,12 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>1068</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <f t="shared" si="3"/>
+        <v>268</v>
       </c>
       <c r="C128" t="s">
         <v>128</v>
@@ -3738,10 +4001,12 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>1069</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <f t="shared" si="3"/>
+        <v>269</v>
       </c>
       <c r="C129" t="s">
         <v>129</v>
@@ -3752,10 +4017,12 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>1070</v>
       </c>
       <c r="B130">
-        <v>129</v>
+        <f t="shared" si="3"/>
+        <v>270</v>
       </c>
       <c r="C130" t="s">
         <v>130</v>
@@ -3766,10 +4033,12 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>15</v>
+        <f t="shared" ref="A131:A194" si="4">SUM(800,B131)</f>
+        <v>1071</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <f t="shared" ref="B131:B194" si="5">ROW() + 140</f>
+        <v>271</v>
       </c>
       <c r="C131" t="s">
         <v>131</v>
@@ -3780,10 +4049,12 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1072</v>
       </c>
       <c r="B132">
-        <v>131</v>
+        <f t="shared" si="5"/>
+        <v>272</v>
       </c>
       <c r="C132" t="s">
         <v>132</v>
@@ -3794,10 +4065,12 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1073</v>
       </c>
       <c r="B133">
-        <v>132</v>
+        <f t="shared" si="5"/>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
         <v>133</v>
@@ -3808,10 +4081,12 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>1074</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <f t="shared" si="5"/>
+        <v>274</v>
       </c>
       <c r="C134" t="s">
         <v>134</v>
@@ -3822,10 +4097,12 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1075</v>
       </c>
       <c r="B135">
-        <v>134</v>
+        <f t="shared" si="5"/>
+        <v>275</v>
       </c>
       <c r="C135" t="s">
         <v>135</v>
@@ -3836,10 +4113,12 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1076</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <f t="shared" si="5"/>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
         <v>136</v>
@@ -3850,10 +4129,12 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>1077</v>
       </c>
       <c r="B137">
-        <v>136</v>
+        <f t="shared" si="5"/>
+        <v>277</v>
       </c>
       <c r="C137" t="s">
         <v>137</v>
@@ -3864,10 +4145,12 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1078</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <f t="shared" si="5"/>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
         <v>138</v>
@@ -3878,10 +4161,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>1079</v>
       </c>
       <c r="B139">
-        <v>138</v>
+        <f t="shared" si="5"/>
+        <v>279</v>
       </c>
       <c r="C139" t="s">
         <v>139</v>
@@ -3892,10 +4177,12 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>1080</v>
       </c>
       <c r="B140">
-        <v>139</v>
+        <f t="shared" si="5"/>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
         <v>140</v>
@@ -3906,10 +4193,12 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1081</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <f t="shared" si="5"/>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
         <v>141</v>
@@ -3920,10 +4209,12 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>1082</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>282</v>
       </c>
       <c r="C142" t="s">
         <v>142</v>
@@ -3934,10 +4225,12 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1083</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
         <v>143</v>
@@ -3948,10 +4241,12 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1084</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>284</v>
       </c>
       <c r="C144" t="s">
         <v>144</v>
@@ -3962,10 +4257,12 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1085</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>285</v>
       </c>
       <c r="C145" t="s">
         <v>145</v>
@@ -3976,10 +4273,12 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1086</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>286</v>
       </c>
       <c r="C146" t="s">
         <v>146</v>
@@ -3990,10 +4289,12 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>1087</v>
       </c>
       <c r="B147">
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>287</v>
       </c>
       <c r="C147" t="s">
         <v>147</v>
@@ -4004,10 +4305,12 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1088</v>
       </c>
       <c r="B148">
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>288</v>
       </c>
       <c r="C148" t="s">
         <v>148</v>
@@ -4018,10 +4321,12 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1089</v>
       </c>
       <c r="B149">
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>289</v>
       </c>
       <c r="C149" t="s">
         <v>149</v>
@@ -4032,10 +4337,12 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1090</v>
       </c>
       <c r="B150">
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>290</v>
       </c>
       <c r="C150" t="s">
         <v>150</v>
@@ -4046,10 +4353,12 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>1091</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>291</v>
       </c>
       <c r="C151" t="s">
         <v>151</v>
@@ -4060,10 +4369,12 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>1092</v>
       </c>
       <c r="B152">
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>292</v>
       </c>
       <c r="C152" t="s">
         <v>152</v>
@@ -4074,10 +4385,12 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>1093</v>
       </c>
       <c r="B153">
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>293</v>
       </c>
       <c r="C153" t="s">
         <v>153</v>
@@ -4088,10 +4401,12 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1094</v>
       </c>
       <c r="B154">
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>294</v>
       </c>
       <c r="C154" t="s">
         <v>154</v>
@@ -4102,10 +4417,12 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1095</v>
       </c>
       <c r="B155">
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>295</v>
       </c>
       <c r="C155" t="s">
         <v>155</v>
@@ -4116,10 +4433,12 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>1096</v>
       </c>
       <c r="B156">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>296</v>
       </c>
       <c r="C156" t="s">
         <v>156</v>
@@ -4130,10 +4449,12 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>1097</v>
       </c>
       <c r="B157">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>297</v>
       </c>
       <c r="C157" t="s">
         <v>157</v>
@@ -4144,10 +4465,12 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>1098</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>298</v>
       </c>
       <c r="C158" t="s">
         <v>158</v>
@@ -4158,10 +4481,12 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1099</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>299</v>
       </c>
       <c r="C159" t="s">
         <v>159</v>
@@ -4172,10 +4497,12 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>1100</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>300</v>
       </c>
       <c r="C160" t="s">
         <v>160</v>
@@ -4186,10 +4513,12 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1101</v>
       </c>
       <c r="B161">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>301</v>
       </c>
       <c r="C161" t="s">
         <v>161</v>
@@ -4200,10 +4529,12 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>1102</v>
       </c>
       <c r="B162">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>302</v>
       </c>
       <c r="C162" t="s">
         <v>162</v>
@@ -4214,10 +4545,12 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1103</v>
       </c>
       <c r="B163">
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>303</v>
       </c>
       <c r="C163" t="s">
         <v>163</v>
@@ -4228,10 +4561,12 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1104</v>
       </c>
       <c r="B164">
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>304</v>
       </c>
       <c r="C164" t="s">
         <v>164</v>
@@ -4242,10 +4577,12 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1105</v>
       </c>
       <c r="B165">
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>305</v>
       </c>
       <c r="C165" t="s">
         <v>165</v>
@@ -4256,10 +4593,12 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1106</v>
       </c>
       <c r="B166">
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>306</v>
       </c>
       <c r="C166" t="s">
         <v>166</v>
@@ -4270,10 +4609,12 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1107</v>
       </c>
       <c r="B167">
-        <v>26</v>
+        <f t="shared" si="5"/>
+        <v>307</v>
       </c>
       <c r="C167" t="s">
         <v>167</v>
@@ -4284,10 +4625,12 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1108</v>
       </c>
       <c r="B168">
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>308</v>
       </c>
       <c r="C168" t="s">
         <v>168</v>
@@ -4298,10 +4641,12 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1109</v>
       </c>
       <c r="B169">
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>309</v>
       </c>
       <c r="C169" t="s">
         <v>169</v>
@@ -4312,10 +4657,12 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>1110</v>
       </c>
       <c r="B170">
-        <v>29</v>
+        <f t="shared" si="5"/>
+        <v>310</v>
       </c>
       <c r="C170" t="s">
         <v>170</v>
@@ -4326,10 +4673,12 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1111</v>
       </c>
       <c r="B171">
-        <v>30</v>
+        <f t="shared" si="5"/>
+        <v>311</v>
       </c>
       <c r="C171" t="s">
         <v>171</v>
@@ -4340,10 +4689,12 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1112</v>
       </c>
       <c r="B172">
-        <v>31</v>
+        <f t="shared" si="5"/>
+        <v>312</v>
       </c>
       <c r="C172" t="s">
         <v>172</v>
@@ -4354,10 +4705,12 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>1113</v>
       </c>
       <c r="B173">
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>313</v>
       </c>
       <c r="C173" t="s">
         <v>173</v>
@@ -4368,10 +4721,12 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>12</v>
+        <f t="shared" si="4"/>
+        <v>1114</v>
       </c>
       <c r="B174">
-        <v>33</v>
+        <f t="shared" si="5"/>
+        <v>314</v>
       </c>
       <c r="C174" t="s">
         <v>174</v>
@@ -4382,10 +4737,12 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1115</v>
       </c>
       <c r="B175">
-        <v>34</v>
+        <f t="shared" si="5"/>
+        <v>315</v>
       </c>
       <c r="C175" t="s">
         <v>175</v>
@@ -4396,10 +4753,12 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1116</v>
       </c>
       <c r="B176">
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>316</v>
       </c>
       <c r="C176" t="s">
         <v>176</v>
@@ -4410,10 +4769,12 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>1117</v>
       </c>
       <c r="B177">
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>317</v>
       </c>
       <c r="C177" t="s">
         <v>177</v>
@@ -4424,10 +4785,12 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1118</v>
       </c>
       <c r="B178">
-        <v>37</v>
+        <f t="shared" si="5"/>
+        <v>318</v>
       </c>
       <c r="C178" t="s">
         <v>178</v>
@@ -4438,10 +4801,12 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1119</v>
       </c>
       <c r="B179">
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>319</v>
       </c>
       <c r="C179" t="s">
         <v>179</v>
@@ -4452,10 +4817,12 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1120</v>
       </c>
       <c r="B180">
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>320</v>
       </c>
       <c r="C180" t="s">
         <v>180</v>
@@ -4466,10 +4833,12 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>1121</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>321</v>
       </c>
       <c r="C181" t="s">
         <v>181</v>
@@ -4480,10 +4849,12 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1122</v>
       </c>
       <c r="B182">
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>322</v>
       </c>
       <c r="C182" t="s">
         <v>182</v>
@@ -4494,10 +4865,12 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1123</v>
       </c>
       <c r="B183">
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>323</v>
       </c>
       <c r="C183" t="s">
         <v>183</v>
@@ -4508,10 +4881,12 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1124</v>
       </c>
       <c r="B184">
-        <v>43</v>
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
       <c r="C184" t="s">
         <v>184</v>
@@ -4522,10 +4897,12 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>1125</v>
       </c>
       <c r="B185">
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="C185" t="s">
         <v>185</v>
@@ -4536,10 +4913,12 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1126</v>
       </c>
       <c r="B186">
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="C186" t="s">
         <v>186</v>
@@ -4550,10 +4929,12 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>1127</v>
       </c>
       <c r="B187">
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="C187" t="s">
         <v>187</v>
@@ -4564,10 +4945,12 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>1128</v>
       </c>
       <c r="B188">
-        <v>47</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="C188" t="s">
         <v>188</v>
@@ -4578,10 +4961,12 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>1129</v>
       </c>
       <c r="B189">
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
       <c r="C189" t="s">
         <v>189</v>
@@ -4592,10 +4977,12 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>1130</v>
       </c>
       <c r="B190">
-        <v>49</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="C190" t="s">
         <v>190</v>
@@ -4606,10 +4993,12 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1131</v>
       </c>
       <c r="B191">
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="C191" t="s">
         <v>191</v>
@@ -4620,10 +5009,12 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>1132</v>
       </c>
       <c r="B192">
-        <v>51</v>
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
       <c r="C192" t="s">
         <v>192</v>
@@ -4634,10 +5025,12 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1133</v>
       </c>
       <c r="B193">
-        <v>52</v>
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="C193" t="s">
         <v>193</v>
@@ -4648,10 +5041,12 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>1134</v>
       </c>
       <c r="B194">
-        <v>53</v>
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="C194" t="s">
         <v>194</v>
@@ -4662,10 +5057,12 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>13</v>
+        <f t="shared" ref="A195:A258" si="6">SUM(800,B195)</f>
+        <v>1135</v>
       </c>
       <c r="B195">
-        <v>54</v>
+        <f t="shared" ref="B195:B258" si="7">ROW() + 140</f>
+        <v>335</v>
       </c>
       <c r="C195" t="s">
         <v>195</v>
@@ -4676,10 +5073,12 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>1136</v>
       </c>
       <c r="B196">
-        <v>55</v>
+        <f t="shared" si="7"/>
+        <v>336</v>
       </c>
       <c r="C196" t="s">
         <v>196</v>
@@ -4690,10 +5089,12 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>1137</v>
       </c>
       <c r="B197">
-        <v>56</v>
+        <f t="shared" si="7"/>
+        <v>337</v>
       </c>
       <c r="C197" t="s">
         <v>197</v>
@@ -4704,10 +5105,12 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1138</v>
       </c>
       <c r="B198">
-        <v>57</v>
+        <f t="shared" si="7"/>
+        <v>338</v>
       </c>
       <c r="C198" t="s">
         <v>198</v>
@@ -4718,10 +5121,12 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>1139</v>
       </c>
       <c r="B199">
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>339</v>
       </c>
       <c r="C199" t="s">
         <v>199</v>
@@ -4732,10 +5137,12 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>1140</v>
       </c>
       <c r="B200">
-        <v>59</v>
+        <f t="shared" si="7"/>
+        <v>340</v>
       </c>
       <c r="C200" t="s">
         <v>200</v>
@@ -4746,10 +5153,12 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1141</v>
       </c>
       <c r="B201">
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>341</v>
       </c>
       <c r="C201" t="s">
         <v>201</v>
@@ -4760,10 +5169,12 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>1142</v>
       </c>
       <c r="B202">
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>342</v>
       </c>
       <c r="C202" t="s">
         <v>202</v>
@@ -4774,10 +5185,12 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>1143</v>
       </c>
       <c r="B203">
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>343</v>
       </c>
       <c r="C203" t="s">
         <v>203</v>
@@ -4788,10 +5201,12 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>1144</v>
       </c>
       <c r="B204">
-        <v>63</v>
+        <f t="shared" si="7"/>
+        <v>344</v>
       </c>
       <c r="C204" t="s">
         <v>204</v>
@@ -4802,10 +5217,12 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>1145</v>
       </c>
       <c r="B205">
-        <v>64</v>
+        <f t="shared" si="7"/>
+        <v>345</v>
       </c>
       <c r="C205" t="s">
         <v>205</v>
@@ -4816,10 +5233,12 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1146</v>
       </c>
       <c r="B206">
-        <v>65</v>
+        <f t="shared" si="7"/>
+        <v>346</v>
       </c>
       <c r="C206" t="s">
         <v>206</v>
@@ -4830,10 +5249,12 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1147</v>
       </c>
       <c r="B207">
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
         <v>207</v>
@@ -4844,10 +5265,12 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1148</v>
       </c>
       <c r="B208">
-        <v>67</v>
+        <f t="shared" si="7"/>
+        <v>348</v>
       </c>
       <c r="C208" t="s">
         <v>208</v>
@@ -4858,10 +5281,12 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>1149</v>
       </c>
       <c r="B209">
-        <v>68</v>
+        <f t="shared" si="7"/>
+        <v>349</v>
       </c>
       <c r="C209" t="s">
         <v>209</v>
@@ -4872,10 +5297,12 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1150</v>
       </c>
       <c r="B210">
-        <v>69</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="C210" t="s">
         <v>210</v>
@@ -4886,10 +5313,12 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>1151</v>
       </c>
       <c r="B211">
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>351</v>
       </c>
       <c r="C211" t="s">
         <v>211</v>
@@ -4900,10 +5329,12 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1152</v>
       </c>
       <c r="B212">
-        <v>71</v>
+        <f t="shared" si="7"/>
+        <v>352</v>
       </c>
       <c r="C212" t="s">
         <v>212</v>
@@ -4914,10 +5345,12 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1153</v>
       </c>
       <c r="B213">
-        <v>72</v>
+        <f t="shared" si="7"/>
+        <v>353</v>
       </c>
       <c r="C213" t="s">
         <v>213</v>
@@ -4928,10 +5361,12 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>1154</v>
       </c>
       <c r="B214">
-        <v>73</v>
+        <f t="shared" si="7"/>
+        <v>354</v>
       </c>
       <c r="C214" t="s">
         <v>214</v>
@@ -4942,10 +5377,12 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1155</v>
       </c>
       <c r="B215">
-        <v>74</v>
+        <f t="shared" si="7"/>
+        <v>355</v>
       </c>
       <c r="C215" t="s">
         <v>215</v>
@@ -4956,10 +5393,12 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>1156</v>
       </c>
       <c r="B216">
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
         <v>216</v>
@@ -4970,10 +5409,12 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>1157</v>
       </c>
       <c r="B217">
-        <v>76</v>
+        <f t="shared" si="7"/>
+        <v>357</v>
       </c>
       <c r="C217" t="s">
         <v>217</v>
@@ -4984,10 +5425,12 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>1158</v>
       </c>
       <c r="B218">
-        <v>77</v>
+        <f t="shared" si="7"/>
+        <v>358</v>
       </c>
       <c r="C218" t="s">
         <v>218</v>
@@ -4998,10 +5441,12 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>1159</v>
       </c>
       <c r="B219">
-        <v>78</v>
+        <f t="shared" si="7"/>
+        <v>359</v>
       </c>
       <c r="C219" t="s">
         <v>219</v>
@@ -5012,10 +5457,12 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>1160</v>
       </c>
       <c r="B220">
-        <v>79</v>
+        <f t="shared" si="7"/>
+        <v>360</v>
       </c>
       <c r="C220" t="s">
         <v>220</v>
@@ -5026,10 +5473,12 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1161</v>
       </c>
       <c r="B221">
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>361</v>
       </c>
       <c r="C221" t="s">
         <v>221</v>
@@ -5040,10 +5489,12 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1162</v>
       </c>
       <c r="B222">
-        <v>81</v>
+        <f t="shared" si="7"/>
+        <v>362</v>
       </c>
       <c r="C222" t="s">
         <v>222</v>
@@ -5054,10 +5505,12 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1163</v>
       </c>
       <c r="B223">
-        <v>82</v>
+        <f t="shared" si="7"/>
+        <v>363</v>
       </c>
       <c r="C223" t="s">
         <v>223</v>
@@ -5068,10 +5521,12 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1164</v>
       </c>
       <c r="B224">
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>364</v>
       </c>
       <c r="C224" t="s">
         <v>224</v>
@@ -5082,10 +5537,12 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1165</v>
       </c>
       <c r="B225">
-        <v>84</v>
+        <f t="shared" si="7"/>
+        <v>365</v>
       </c>
       <c r="C225" t="s">
         <v>225</v>
@@ -5096,10 +5553,12 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1166</v>
       </c>
       <c r="B226">
-        <v>85</v>
+        <f t="shared" si="7"/>
+        <v>366</v>
       </c>
       <c r="C226" t="s">
         <v>226</v>
@@ -5110,10 +5569,12 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>1167</v>
       </c>
       <c r="B227">
-        <v>86</v>
+        <f t="shared" si="7"/>
+        <v>367</v>
       </c>
       <c r="C227" t="s">
         <v>227</v>
@@ -5124,10 +5585,12 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>1168</v>
       </c>
       <c r="B228">
-        <v>87</v>
+        <f t="shared" si="7"/>
+        <v>368</v>
       </c>
       <c r="C228" t="s">
         <v>228</v>
@@ -5138,10 +5601,12 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1169</v>
       </c>
       <c r="B229">
-        <v>88</v>
+        <f t="shared" si="7"/>
+        <v>369</v>
       </c>
       <c r="C229" t="s">
         <v>229</v>
@@ -5152,10 +5617,12 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1170</v>
       </c>
       <c r="B230">
-        <v>89</v>
+        <f t="shared" si="7"/>
+        <v>370</v>
       </c>
       <c r="C230" t="s">
         <v>230</v>
@@ -5166,10 +5633,12 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1171</v>
       </c>
       <c r="B231">
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>371</v>
       </c>
       <c r="C231" t="s">
         <v>231</v>
@@ -5180,10 +5649,12 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1172</v>
       </c>
       <c r="B232">
-        <v>91</v>
+        <f t="shared" si="7"/>
+        <v>372</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
@@ -5194,10 +5665,12 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1173</v>
       </c>
       <c r="B233">
-        <v>92</v>
+        <f t="shared" si="7"/>
+        <v>373</v>
       </c>
       <c r="C233" t="s">
         <v>233</v>
@@ -5208,10 +5681,12 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>1174</v>
       </c>
       <c r="B234">
-        <v>93</v>
+        <f t="shared" si="7"/>
+        <v>374</v>
       </c>
       <c r="C234" t="s">
         <v>234</v>
@@ -5222,10 +5697,12 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>1175</v>
       </c>
       <c r="B235">
-        <v>94</v>
+        <f t="shared" si="7"/>
+        <v>375</v>
       </c>
       <c r="C235" t="s">
         <v>235</v>
@@ -5236,10 +5713,12 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>1176</v>
       </c>
       <c r="B236">
-        <v>95</v>
+        <f t="shared" si="7"/>
+        <v>376</v>
       </c>
       <c r="C236" t="s">
         <v>236</v>
@@ -5250,10 +5729,12 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1177</v>
       </c>
       <c r="B237">
-        <v>96</v>
+        <f t="shared" si="7"/>
+        <v>377</v>
       </c>
       <c r="C237" t="s">
         <v>237</v>
@@ -5264,10 +5745,12 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1178</v>
       </c>
       <c r="B238">
-        <v>97</v>
+        <f t="shared" si="7"/>
+        <v>378</v>
       </c>
       <c r="C238" t="s">
         <v>238</v>
@@ -5278,10 +5761,12 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>1179</v>
       </c>
       <c r="B239">
-        <v>98</v>
+        <f t="shared" si="7"/>
+        <v>379</v>
       </c>
       <c r="C239" t="s">
         <v>239</v>
@@ -5292,10 +5777,12 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1180</v>
       </c>
       <c r="B240">
-        <v>99</v>
+        <f t="shared" si="7"/>
+        <v>380</v>
       </c>
       <c r="C240" t="s">
         <v>240</v>
@@ -5306,10 +5793,12 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>1181</v>
       </c>
       <c r="B241">
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>381</v>
       </c>
       <c r="C241" t="s">
         <v>241</v>
@@ -5320,10 +5809,12 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>1182</v>
       </c>
       <c r="B242">
-        <v>101</v>
+        <f t="shared" si="7"/>
+        <v>382</v>
       </c>
       <c r="C242" t="s">
         <v>242</v>
@@ -5334,10 +5825,12 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1183</v>
       </c>
       <c r="B243">
-        <v>102</v>
+        <f t="shared" si="7"/>
+        <v>383</v>
       </c>
       <c r="C243" t="s">
         <v>243</v>
@@ -5348,10 +5841,12 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>1184</v>
       </c>
       <c r="B244">
-        <v>103</v>
+        <f t="shared" si="7"/>
+        <v>384</v>
       </c>
       <c r="C244" t="s">
         <v>244</v>
@@ -5362,10 +5857,12 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1185</v>
       </c>
       <c r="B245">
-        <v>104</v>
+        <f t="shared" si="7"/>
+        <v>385</v>
       </c>
       <c r="C245" t="s">
         <v>245</v>
@@ -5376,10 +5873,12 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>1186</v>
       </c>
       <c r="B246">
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>386</v>
       </c>
       <c r="C246" t="s">
         <v>246</v>
@@ -5390,10 +5889,12 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1187</v>
       </c>
       <c r="B247">
-        <v>106</v>
+        <f t="shared" si="7"/>
+        <v>387</v>
       </c>
       <c r="C247" t="s">
         <v>247</v>
@@ -5404,10 +5905,12 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1188</v>
       </c>
       <c r="B248">
-        <v>107</v>
+        <f t="shared" si="7"/>
+        <v>388</v>
       </c>
       <c r="C248" t="s">
         <v>248</v>
@@ -5418,10 +5921,12 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1189</v>
       </c>
       <c r="B249">
-        <v>108</v>
+        <f t="shared" si="7"/>
+        <v>389</v>
       </c>
       <c r="C249" t="s">
         <v>249</v>
@@ -5432,10 +5937,12 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>1190</v>
       </c>
       <c r="B250">
-        <v>109</v>
+        <f t="shared" si="7"/>
+        <v>390</v>
       </c>
       <c r="C250" t="s">
         <v>250</v>
@@ -5446,10 +5953,12 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1191</v>
       </c>
       <c r="B251">
-        <v>110</v>
+        <f t="shared" si="7"/>
+        <v>391</v>
       </c>
       <c r="C251" t="s">
         <v>251</v>
@@ -5460,10 +5969,12 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>1192</v>
       </c>
       <c r="B252">
-        <v>111</v>
+        <f t="shared" si="7"/>
+        <v>392</v>
       </c>
       <c r="C252" t="s">
         <v>252</v>
@@ -5474,10 +5985,12 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>1193</v>
       </c>
       <c r="B253">
-        <v>112</v>
+        <f t="shared" si="7"/>
+        <v>393</v>
       </c>
       <c r="C253" t="s">
         <v>253</v>
@@ -5488,10 +6001,12 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>1194</v>
       </c>
       <c r="B254">
-        <v>113</v>
+        <f t="shared" si="7"/>
+        <v>394</v>
       </c>
       <c r="C254" t="s">
         <v>254</v>
@@ -5502,10 +6017,12 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>1195</v>
       </c>
       <c r="B255">
-        <v>114</v>
+        <f t="shared" si="7"/>
+        <v>395</v>
       </c>
       <c r="C255" t="s">
         <v>255</v>
@@ -5516,10 +6033,12 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>1196</v>
       </c>
       <c r="B256">
-        <v>115</v>
+        <f t="shared" si="7"/>
+        <v>396</v>
       </c>
       <c r="C256" t="s">
         <v>256</v>
@@ -5530,10 +6049,12 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>1197</v>
       </c>
       <c r="B257">
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>397</v>
       </c>
       <c r="C257" t="s">
         <v>257</v>
@@ -5544,10 +6065,12 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>1198</v>
       </c>
       <c r="B258">
-        <v>117</v>
+        <f t="shared" si="7"/>
+        <v>398</v>
       </c>
       <c r="C258" t="s">
         <v>258</v>
@@ -5558,10 +6081,12 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>8</v>
+        <f t="shared" ref="A259:A322" si="8">SUM(800,B259)</f>
+        <v>1199</v>
       </c>
       <c r="B259">
-        <v>118</v>
+        <f t="shared" ref="B259:B322" si="9">ROW() + 140</f>
+        <v>399</v>
       </c>
       <c r="C259" t="s">
         <v>259</v>
@@ -5572,10 +6097,12 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1200</v>
       </c>
       <c r="B260">
-        <v>119</v>
+        <f t="shared" si="9"/>
+        <v>400</v>
       </c>
       <c r="C260" t="s">
         <v>260</v>
@@ -5586,10 +6113,12 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>1201</v>
       </c>
       <c r="B261">
-        <v>120</v>
+        <f t="shared" si="9"/>
+        <v>401</v>
       </c>
       <c r="C261" t="s">
         <v>261</v>
@@ -5600,10 +6129,12 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>1202</v>
       </c>
       <c r="B262">
-        <v>121</v>
+        <f t="shared" si="9"/>
+        <v>402</v>
       </c>
       <c r="C262" t="s">
         <v>262</v>
@@ -5614,10 +6145,12 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1203</v>
       </c>
       <c r="B263">
-        <v>122</v>
+        <f t="shared" si="9"/>
+        <v>403</v>
       </c>
       <c r="C263" t="s">
         <v>263</v>
@@ -5628,10 +6161,12 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1204</v>
       </c>
       <c r="B264">
-        <v>123</v>
+        <f t="shared" si="9"/>
+        <v>404</v>
       </c>
       <c r="C264" t="s">
         <v>264</v>
@@ -5642,10 +6177,12 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1205</v>
       </c>
       <c r="B265">
-        <v>124</v>
+        <f t="shared" si="9"/>
+        <v>405</v>
       </c>
       <c r="C265" t="s">
         <v>265</v>
@@ -5656,10 +6193,12 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>1206</v>
       </c>
       <c r="B266">
-        <v>125</v>
+        <f t="shared" si="9"/>
+        <v>406</v>
       </c>
       <c r="C266" t="s">
         <v>113</v>
@@ -5670,10 +6209,12 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1207</v>
       </c>
       <c r="B267">
-        <v>126</v>
+        <f t="shared" si="9"/>
+        <v>407</v>
       </c>
       <c r="C267" t="s">
         <v>266</v>
@@ -5684,10 +6225,12 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1208</v>
       </c>
       <c r="B268">
-        <v>127</v>
+        <f t="shared" si="9"/>
+        <v>408</v>
       </c>
       <c r="C268" t="s">
         <v>267</v>
@@ -5698,10 +6241,12 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>1209</v>
       </c>
       <c r="B269">
-        <v>128</v>
+        <f t="shared" si="9"/>
+        <v>409</v>
       </c>
       <c r="C269" t="s">
         <v>268</v>
@@ -5712,10 +6257,12 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1210</v>
       </c>
       <c r="B270">
-        <v>129</v>
+        <f t="shared" si="9"/>
+        <v>410</v>
       </c>
       <c r="C270" t="s">
         <v>269</v>
@@ -5726,10 +6273,12 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1211</v>
       </c>
       <c r="B271">
-        <v>130</v>
+        <f t="shared" si="9"/>
+        <v>411</v>
       </c>
       <c r="C271" t="s">
         <v>270</v>
@@ -5740,10 +6289,12 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1212</v>
       </c>
       <c r="B272">
-        <v>131</v>
+        <f t="shared" si="9"/>
+        <v>412</v>
       </c>
       <c r="C272" t="s">
         <v>271</v>
@@ -5754,10 +6305,12 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>1213</v>
       </c>
       <c r="B273">
-        <v>132</v>
+        <f t="shared" si="9"/>
+        <v>413</v>
       </c>
       <c r="C273" t="s">
         <v>272</v>
@@ -5768,10 +6321,12 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>1214</v>
       </c>
       <c r="B274">
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>414</v>
       </c>
       <c r="C274" t="s">
         <v>273</v>
@@ -5782,10 +6337,12 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>1215</v>
       </c>
       <c r="B275">
-        <v>134</v>
+        <f t="shared" si="9"/>
+        <v>415</v>
       </c>
       <c r="C275" t="s">
         <v>274</v>
@@ -5796,10 +6353,12 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>1216</v>
       </c>
       <c r="B276">
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>416</v>
       </c>
       <c r="C276" t="s">
         <v>275</v>
@@ -5810,10 +6369,12 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>1217</v>
       </c>
       <c r="B277">
-        <v>136</v>
+        <f t="shared" si="9"/>
+        <v>417</v>
       </c>
       <c r="C277" t="s">
         <v>276</v>
@@ -5824,10 +6385,12 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>1218</v>
       </c>
       <c r="B278">
-        <v>137</v>
+        <f t="shared" si="9"/>
+        <v>418</v>
       </c>
       <c r="C278" t="s">
         <v>277</v>
@@ -5838,10 +6401,12 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1219</v>
       </c>
       <c r="B279">
-        <v>138</v>
+        <f t="shared" si="9"/>
+        <v>419</v>
       </c>
       <c r="C279" t="s">
         <v>278</v>
@@ -5852,10 +6417,12 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1220</v>
       </c>
       <c r="B280">
-        <v>139</v>
+        <f t="shared" si="9"/>
+        <v>420</v>
       </c>
       <c r="C280" t="s">
         <v>279</v>
@@ -5866,10 +6433,12 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>1221</v>
       </c>
       <c r="B281">
-        <v>140</v>
+        <f t="shared" si="9"/>
+        <v>421</v>
       </c>
       <c r="C281" t="s">
         <v>280</v>
@@ -5880,10 +6449,12 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>1222</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>422</v>
       </c>
       <c r="C282" t="s">
         <v>281</v>
@@ -5894,10 +6465,12 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>1223</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>423</v>
       </c>
       <c r="C283" t="s">
         <v>282</v>
@@ -5908,10 +6481,12 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1224</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>424</v>
       </c>
       <c r="C284" t="s">
         <v>283</v>
@@ -5922,10 +6497,12 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>1225</v>
       </c>
       <c r="B285">
-        <v>4</v>
+        <f t="shared" si="9"/>
+        <v>425</v>
       </c>
       <c r="C285" t="s">
         <v>284</v>
@@ -5936,10 +6513,12 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1226</v>
       </c>
       <c r="B286">
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>426</v>
       </c>
       <c r="C286" t="s">
         <v>285</v>
@@ -5950,10 +6529,12 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>8</v>
+        <f t="shared" si="8"/>
+        <v>1227</v>
       </c>
       <c r="B287">
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>427</v>
       </c>
       <c r="C287" t="s">
         <v>286</v>
@@ -5964,10 +6545,12 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1228</v>
       </c>
       <c r="B288">
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>428</v>
       </c>
       <c r="C288" t="s">
         <v>287</v>
@@ -5978,10 +6561,12 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1229</v>
       </c>
       <c r="B289">
-        <v>8</v>
+        <f t="shared" si="9"/>
+        <v>429</v>
       </c>
       <c r="C289" t="s">
         <v>288</v>
@@ -5992,10 +6577,12 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1230</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>430</v>
       </c>
       <c r="C290" t="s">
         <v>289</v>
@@ -6006,10 +6593,12 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>1231</v>
       </c>
       <c r="B291">
-        <v>10</v>
+        <f t="shared" si="9"/>
+        <v>431</v>
       </c>
       <c r="C291" t="s">
         <v>290</v>
@@ -6020,10 +6609,12 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1232</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <f t="shared" si="9"/>
+        <v>432</v>
       </c>
       <c r="C292" t="s">
         <v>291</v>
@@ -6034,10 +6625,12 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>1233</v>
       </c>
       <c r="B293">
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>433</v>
       </c>
       <c r="C293" t="s">
         <v>292</v>
@@ -6048,10 +6641,12 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1234</v>
       </c>
       <c r="B294">
-        <v>13</v>
+        <f t="shared" si="9"/>
+        <v>434</v>
       </c>
       <c r="C294" t="s">
         <v>293</v>
@@ -6062,10 +6657,12 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1235</v>
       </c>
       <c r="B295">
-        <v>14</v>
+        <f t="shared" si="9"/>
+        <v>435</v>
       </c>
       <c r="C295" t="s">
         <v>294</v>
@@ -6076,10 +6673,12 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1236</v>
       </c>
       <c r="B296">
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>436</v>
       </c>
       <c r="C296" t="s">
         <v>295</v>
@@ -6090,10 +6689,12 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>1237</v>
       </c>
       <c r="B297">
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>437</v>
       </c>
       <c r="C297" t="s">
         <v>296</v>
@@ -6104,10 +6705,12 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1238</v>
       </c>
       <c r="B298">
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>438</v>
       </c>
       <c r="C298" t="s">
         <v>297</v>
@@ -6118,10 +6721,12 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1239</v>
       </c>
       <c r="B299">
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>439</v>
       </c>
       <c r="C299" t="s">
         <v>298</v>
@@ -6132,10 +6737,12 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>1240</v>
       </c>
       <c r="B300">
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>440</v>
       </c>
       <c r="C300" t="s">
         <v>299</v>
@@ -6146,10 +6753,12 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>1241</v>
       </c>
       <c r="B301">
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>441</v>
       </c>
       <c r="C301" t="s">
         <v>300</v>
@@ -6160,10 +6769,12 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1242</v>
       </c>
       <c r="B302">
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>442</v>
       </c>
       <c r="C302" t="s">
         <v>301</v>
@@ -6174,10 +6785,12 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1243</v>
       </c>
       <c r="B303">
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>443</v>
       </c>
       <c r="C303" t="s">
         <v>302</v>
@@ -6188,10 +6801,12 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1244</v>
       </c>
       <c r="B304">
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>444</v>
       </c>
       <c r="C304" t="s">
         <v>303</v>
@@ -6202,10 +6817,12 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1245</v>
       </c>
       <c r="B305">
-        <v>24</v>
+        <f t="shared" si="9"/>
+        <v>445</v>
       </c>
       <c r="C305" t="s">
         <v>304</v>
@@ -6216,10 +6833,12 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>1246</v>
       </c>
       <c r="B306">
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>446</v>
       </c>
       <c r="C306" t="s">
         <v>305</v>
@@ -6230,10 +6849,12 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1247</v>
       </c>
       <c r="B307">
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>447</v>
       </c>
       <c r="C307" t="s">
         <v>306</v>
@@ -6244,10 +6865,12 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>1248</v>
       </c>
       <c r="B308">
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>448</v>
       </c>
       <c r="C308" t="s">
         <v>307</v>
@@ -6258,10 +6881,12 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>1249</v>
       </c>
       <c r="B309">
-        <v>28</v>
+        <f t="shared" si="9"/>
+        <v>449</v>
       </c>
       <c r="C309" t="s">
         <v>308</v>
@@ -6272,10 +6897,12 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>1250</v>
       </c>
       <c r="B310">
-        <v>29</v>
+        <f t="shared" si="9"/>
+        <v>450</v>
       </c>
       <c r="C310" t="s">
         <v>309</v>
@@ -6286,10 +6913,12 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>1251</v>
       </c>
       <c r="B311">
-        <v>30</v>
+        <f t="shared" si="9"/>
+        <v>451</v>
       </c>
       <c r="C311" t="s">
         <v>310</v>
@@ -6300,10 +6929,12 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>1252</v>
       </c>
       <c r="B312">
-        <v>31</v>
+        <f t="shared" si="9"/>
+        <v>452</v>
       </c>
       <c r="C312" t="s">
         <v>311</v>
@@ -6314,10 +6945,12 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1253</v>
       </c>
       <c r="B313">
-        <v>32</v>
+        <f t="shared" si="9"/>
+        <v>453</v>
       </c>
       <c r="C313" t="s">
         <v>198</v>
@@ -6328,10 +6961,12 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>1254</v>
       </c>
       <c r="B314">
-        <v>33</v>
+        <f t="shared" si="9"/>
+        <v>454</v>
       </c>
       <c r="C314" t="s">
         <v>312</v>
@@ -6342,10 +6977,12 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1255</v>
       </c>
       <c r="B315">
-        <v>34</v>
+        <f t="shared" si="9"/>
+        <v>455</v>
       </c>
       <c r="C315" t="s">
         <v>313</v>
@@ -6356,10 +6993,12 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>1256</v>
       </c>
       <c r="B316">
-        <v>35</v>
+        <f t="shared" si="9"/>
+        <v>456</v>
       </c>
       <c r="C316" t="s">
         <v>314</v>
@@ -6370,10 +7009,12 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>1257</v>
       </c>
       <c r="B317">
-        <v>36</v>
+        <f t="shared" si="9"/>
+        <v>457</v>
       </c>
       <c r="C317" t="s">
         <v>315</v>
@@ -6384,10 +7025,12 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>1258</v>
       </c>
       <c r="B318">
-        <v>37</v>
+        <f t="shared" si="9"/>
+        <v>458</v>
       </c>
       <c r="C318" t="s">
         <v>316</v>
@@ -6398,10 +7041,12 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>1259</v>
       </c>
       <c r="B319">
-        <v>38</v>
+        <f t="shared" si="9"/>
+        <v>459</v>
       </c>
       <c r="C319" t="s">
         <v>317</v>
@@ -6412,10 +7057,12 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>6</v>
+        <f t="shared" si="8"/>
+        <v>1260</v>
       </c>
       <c r="B320">
-        <v>39</v>
+        <f t="shared" si="9"/>
+        <v>460</v>
       </c>
       <c r="C320" t="s">
         <v>318</v>
@@ -6426,10 +7073,12 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1261</v>
       </c>
       <c r="B321">
-        <v>40</v>
+        <f t="shared" si="9"/>
+        <v>461</v>
       </c>
       <c r="C321" t="s">
         <v>51</v>
@@ -6440,10 +7089,12 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>1262</v>
       </c>
       <c r="B322">
-        <v>41</v>
+        <f t="shared" si="9"/>
+        <v>462</v>
       </c>
       <c r="C322" t="s">
         <v>319</v>
@@ -6454,10 +7105,12 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>14</v>
+        <f t="shared" ref="A323:A386" si="10">SUM(800,B323)</f>
+        <v>1263</v>
       </c>
       <c r="B323">
-        <v>42</v>
+        <f t="shared" ref="B323:B386" si="11">ROW() + 140</f>
+        <v>463</v>
       </c>
       <c r="C323" t="s">
         <v>320</v>
@@ -6468,10 +7121,12 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1264</v>
       </c>
       <c r="B324">
-        <v>43</v>
+        <f t="shared" si="11"/>
+        <v>464</v>
       </c>
       <c r="C324" t="s">
         <v>321</v>
@@ -6482,10 +7137,12 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>1265</v>
       </c>
       <c r="B325">
-        <v>44</v>
+        <f t="shared" si="11"/>
+        <v>465</v>
       </c>
       <c r="C325" t="s">
         <v>322</v>
@@ -6496,10 +7153,12 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>1266</v>
       </c>
       <c r="B326">
-        <v>45</v>
+        <f t="shared" si="11"/>
+        <v>466</v>
       </c>
       <c r="C326" t="s">
         <v>323</v>
@@ -6510,10 +7169,12 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>1267</v>
       </c>
       <c r="B327">
-        <v>46</v>
+        <f t="shared" si="11"/>
+        <v>467</v>
       </c>
       <c r="C327" t="s">
         <v>324</v>
@@ -6524,10 +7185,12 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1268</v>
       </c>
       <c r="B328">
-        <v>47</v>
+        <f t="shared" si="11"/>
+        <v>468</v>
       </c>
       <c r="C328" t="s">
         <v>325</v>
@@ -6538,10 +7201,12 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>1269</v>
       </c>
       <c r="B329">
-        <v>48</v>
+        <f t="shared" si="11"/>
+        <v>469</v>
       </c>
       <c r="C329" t="s">
         <v>326</v>
@@ -6552,10 +7217,12 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1270</v>
       </c>
       <c r="B330">
-        <v>49</v>
+        <f t="shared" si="11"/>
+        <v>470</v>
       </c>
       <c r="C330" t="s">
         <v>327</v>
@@ -6566,10 +7233,12 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1271</v>
       </c>
       <c r="B331">
-        <v>50</v>
+        <f t="shared" si="11"/>
+        <v>471</v>
       </c>
       <c r="C331" t="s">
         <v>328</v>
@@ -6580,10 +7249,12 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>1272</v>
       </c>
       <c r="B332">
-        <v>51</v>
+        <f t="shared" si="11"/>
+        <v>472</v>
       </c>
       <c r="C332" t="s">
         <v>329</v>
@@ -6594,10 +7265,12 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1273</v>
       </c>
       <c r="B333">
-        <v>52</v>
+        <f t="shared" si="11"/>
+        <v>473</v>
       </c>
       <c r="C333" t="s">
         <v>330</v>
@@ -6608,10 +7281,12 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1274</v>
       </c>
       <c r="B334">
-        <v>53</v>
+        <f t="shared" si="11"/>
+        <v>474</v>
       </c>
       <c r="C334" t="s">
         <v>331</v>
@@ -6622,10 +7297,12 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1275</v>
       </c>
       <c r="B335">
-        <v>54</v>
+        <f t="shared" si="11"/>
+        <v>475</v>
       </c>
       <c r="C335" t="s">
         <v>332</v>
@@ -6636,10 +7313,12 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1276</v>
       </c>
       <c r="B336">
-        <v>55</v>
+        <f t="shared" si="11"/>
+        <v>476</v>
       </c>
       <c r="C336" t="s">
         <v>333</v>
@@ -6650,10 +7329,12 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>1277</v>
       </c>
       <c r="B337">
-        <v>56</v>
+        <f t="shared" si="11"/>
+        <v>477</v>
       </c>
       <c r="C337" t="s">
         <v>334</v>
@@ -6664,10 +7345,12 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1278</v>
       </c>
       <c r="B338">
-        <v>57</v>
+        <f t="shared" si="11"/>
+        <v>478</v>
       </c>
       <c r="C338" t="s">
         <v>335</v>
@@ -6678,10 +7361,12 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1279</v>
       </c>
       <c r="B339">
-        <v>58</v>
+        <f t="shared" si="11"/>
+        <v>479</v>
       </c>
       <c r="C339" t="s">
         <v>336</v>
@@ -6692,10 +7377,12 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1280</v>
       </c>
       <c r="B340">
-        <v>59</v>
+        <f t="shared" si="11"/>
+        <v>480</v>
       </c>
       <c r="C340" t="s">
         <v>337</v>
@@ -6706,10 +7393,12 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1281</v>
       </c>
       <c r="B341">
-        <v>60</v>
+        <f t="shared" si="11"/>
+        <v>481</v>
       </c>
       <c r="C341" t="s">
         <v>338</v>
@@ -6720,10 +7409,12 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>1282</v>
       </c>
       <c r="B342">
-        <v>61</v>
+        <f t="shared" si="11"/>
+        <v>482</v>
       </c>
       <c r="C342" t="s">
         <v>339</v>
@@ -6734,10 +7425,12 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1283</v>
       </c>
       <c r="B343">
-        <v>62</v>
+        <f t="shared" si="11"/>
+        <v>483</v>
       </c>
       <c r="C343" t="s">
         <v>340</v>
@@ -6748,10 +7441,12 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1284</v>
       </c>
       <c r="B344">
-        <v>63</v>
+        <f t="shared" si="11"/>
+        <v>484</v>
       </c>
       <c r="C344" t="s">
         <v>341</v>
@@ -6762,10 +7457,12 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>1285</v>
       </c>
       <c r="B345">
-        <v>64</v>
+        <f t="shared" si="11"/>
+        <v>485</v>
       </c>
       <c r="C345" t="s">
         <v>342</v>
@@ -6776,10 +7473,12 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>1286</v>
       </c>
       <c r="B346">
-        <v>65</v>
+        <f t="shared" si="11"/>
+        <v>486</v>
       </c>
       <c r="C346" t="s">
         <v>343</v>
@@ -6790,10 +7489,12 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>1287</v>
       </c>
       <c r="B347">
-        <v>66</v>
+        <f t="shared" si="11"/>
+        <v>487</v>
       </c>
       <c r="C347" t="s">
         <v>344</v>
@@ -6804,10 +7505,12 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1288</v>
       </c>
       <c r="B348">
-        <v>67</v>
+        <f t="shared" si="11"/>
+        <v>488</v>
       </c>
       <c r="C348" t="s">
         <v>345</v>
@@ -6818,10 +7521,12 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>1289</v>
       </c>
       <c r="B349">
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>489</v>
       </c>
       <c r="C349" t="s">
         <v>346</v>
@@ -6832,10 +7537,12 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>1290</v>
       </c>
       <c r="B350">
-        <v>69</v>
+        <f t="shared" si="11"/>
+        <v>490</v>
       </c>
       <c r="C350" t="s">
         <v>347</v>
@@ -6846,10 +7553,12 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>1291</v>
       </c>
       <c r="B351">
-        <v>70</v>
+        <f t="shared" si="11"/>
+        <v>491</v>
       </c>
       <c r="C351" t="s">
         <v>348</v>
@@ -6860,10 +7569,12 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>1292</v>
       </c>
       <c r="B352">
-        <v>71</v>
+        <f t="shared" si="11"/>
+        <v>492</v>
       </c>
       <c r="C352" t="s">
         <v>349</v>
@@ -6874,10 +7585,12 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>1293</v>
       </c>
       <c r="B353">
-        <v>72</v>
+        <f t="shared" si="11"/>
+        <v>493</v>
       </c>
       <c r="C353" t="s">
         <v>350</v>
@@ -6888,10 +7601,12 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1294</v>
       </c>
       <c r="B354">
-        <v>73</v>
+        <f t="shared" si="11"/>
+        <v>494</v>
       </c>
       <c r="C354" t="s">
         <v>351</v>
@@ -6902,10 +7617,12 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>1295</v>
       </c>
       <c r="B355">
-        <v>74</v>
+        <f t="shared" si="11"/>
+        <v>495</v>
       </c>
       <c r="C355" t="s">
         <v>352</v>
@@ -6916,10 +7633,12 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>1296</v>
       </c>
       <c r="B356">
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>496</v>
       </c>
       <c r="C356" t="s">
         <v>353</v>
@@ -6930,10 +7649,12 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>1297</v>
       </c>
       <c r="B357">
-        <v>76</v>
+        <f t="shared" si="11"/>
+        <v>497</v>
       </c>
       <c r="C357" t="s">
         <v>354</v>
@@ -6944,10 +7665,12 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>1298</v>
       </c>
       <c r="B358">
-        <v>77</v>
+        <f t="shared" si="11"/>
+        <v>498</v>
       </c>
       <c r="C358" t="s">
         <v>355</v>
@@ -6958,10 +7681,12 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>1299</v>
       </c>
       <c r="B359">
-        <v>78</v>
+        <f t="shared" si="11"/>
+        <v>499</v>
       </c>
       <c r="C359" t="s">
         <v>356</v>
@@ -6972,10 +7697,12 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1300</v>
       </c>
       <c r="B360">
-        <v>79</v>
+        <f t="shared" si="11"/>
+        <v>500</v>
       </c>
       <c r="C360" t="s">
         <v>357</v>
@@ -6986,10 +7713,12 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1301</v>
       </c>
       <c r="B361">
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>501</v>
       </c>
       <c r="C361" t="s">
         <v>358</v>
@@ -7000,10 +7729,12 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>1302</v>
       </c>
       <c r="B362">
-        <v>81</v>
+        <f t="shared" si="11"/>
+        <v>502</v>
       </c>
       <c r="C362" t="s">
         <v>359</v>
@@ -7014,10 +7745,12 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>1303</v>
       </c>
       <c r="B363">
-        <v>82</v>
+        <f t="shared" si="11"/>
+        <v>503</v>
       </c>
       <c r="C363" t="s">
         <v>360</v>
@@ -7028,10 +7761,12 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1304</v>
       </c>
       <c r="B364">
-        <v>83</v>
+        <f t="shared" si="11"/>
+        <v>504</v>
       </c>
       <c r="C364" t="s">
         <v>361</v>
@@ -7042,10 +7777,12 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1305</v>
       </c>
       <c r="B365">
-        <v>84</v>
+        <f t="shared" si="11"/>
+        <v>505</v>
       </c>
       <c r="C365" t="s">
         <v>362</v>
@@ -7056,10 +7793,12 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1306</v>
       </c>
       <c r="B366">
-        <v>85</v>
+        <f t="shared" si="11"/>
+        <v>506</v>
       </c>
       <c r="C366" t="s">
         <v>363</v>
@@ -7070,10 +7809,12 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>1307</v>
       </c>
       <c r="B367">
-        <v>86</v>
+        <f t="shared" si="11"/>
+        <v>507</v>
       </c>
       <c r="C367" t="s">
         <v>364</v>
@@ -7084,10 +7825,12 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1308</v>
       </c>
       <c r="B368">
-        <v>87</v>
+        <f t="shared" si="11"/>
+        <v>508</v>
       </c>
       <c r="C368" t="s">
         <v>365</v>
@@ -7098,10 +7841,12 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1309</v>
       </c>
       <c r="B369">
-        <v>88</v>
+        <f t="shared" si="11"/>
+        <v>509</v>
       </c>
       <c r="C369" t="s">
         <v>366</v>
@@ -7112,10 +7857,12 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1310</v>
       </c>
       <c r="B370">
-        <v>89</v>
+        <f t="shared" si="11"/>
+        <v>510</v>
       </c>
       <c r="C370" t="s">
         <v>367</v>
@@ -7126,10 +7873,12 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>1311</v>
       </c>
       <c r="B371">
-        <v>90</v>
+        <f t="shared" si="11"/>
+        <v>511</v>
       </c>
       <c r="C371" t="s">
         <v>368</v>
@@ -7140,10 +7889,12 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1312</v>
       </c>
       <c r="B372">
-        <v>91</v>
+        <f t="shared" si="11"/>
+        <v>512</v>
       </c>
       <c r="C372" t="s">
         <v>369</v>
@@ -7154,10 +7905,12 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>1313</v>
       </c>
       <c r="B373">
-        <v>92</v>
+        <f t="shared" si="11"/>
+        <v>513</v>
       </c>
       <c r="C373" t="s">
         <v>370</v>
@@ -7168,10 +7921,12 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>1314</v>
       </c>
       <c r="B374">
-        <v>93</v>
+        <f t="shared" si="11"/>
+        <v>514</v>
       </c>
       <c r="C374" t="s">
         <v>371</v>
@@ -7182,10 +7937,12 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1315</v>
       </c>
       <c r="B375">
-        <v>94</v>
+        <f t="shared" si="11"/>
+        <v>515</v>
       </c>
       <c r="C375" t="s">
         <v>372</v>
@@ -7196,10 +7953,12 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1316</v>
       </c>
       <c r="B376">
-        <v>95</v>
+        <f t="shared" si="11"/>
+        <v>516</v>
       </c>
       <c r="C376" t="s">
         <v>373</v>
@@ -7210,10 +7969,12 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1317</v>
       </c>
       <c r="B377">
-        <v>96</v>
+        <f t="shared" si="11"/>
+        <v>517</v>
       </c>
       <c r="C377" t="s">
         <v>374</v>
@@ -7224,10 +7985,12 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>1318</v>
       </c>
       <c r="B378">
-        <v>97</v>
+        <f t="shared" si="11"/>
+        <v>518</v>
       </c>
       <c r="C378" t="s">
         <v>375</v>
@@ -7238,10 +8001,12 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1319</v>
       </c>
       <c r="B379">
-        <v>98</v>
+        <f t="shared" si="11"/>
+        <v>519</v>
       </c>
       <c r="C379" t="s">
         <v>376</v>
@@ -7252,10 +8017,12 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>15</v>
+        <f t="shared" si="10"/>
+        <v>1320</v>
       </c>
       <c r="B380">
-        <v>99</v>
+        <f t="shared" si="11"/>
+        <v>520</v>
       </c>
       <c r="C380" t="s">
         <v>377</v>
@@ -7266,10 +8033,12 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>1321</v>
       </c>
       <c r="B381">
-        <v>100</v>
+        <f t="shared" si="11"/>
+        <v>521</v>
       </c>
       <c r="C381" t="s">
         <v>378</v>
@@ -7280,10 +8049,12 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>1322</v>
       </c>
       <c r="B382">
-        <v>101</v>
+        <f t="shared" si="11"/>
+        <v>522</v>
       </c>
       <c r="C382" t="s">
         <v>379</v>
@@ -7294,10 +8065,12 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>1323</v>
       </c>
       <c r="B383">
-        <v>102</v>
+        <f t="shared" si="11"/>
+        <v>523</v>
       </c>
       <c r="C383" t="s">
         <v>380</v>
@@ -7308,10 +8081,12 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>1324</v>
       </c>
       <c r="B384">
-        <v>103</v>
+        <f t="shared" si="11"/>
+        <v>524</v>
       </c>
       <c r="C384" t="s">
         <v>381</v>
@@ -7322,10 +8097,12 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>1325</v>
       </c>
       <c r="B385">
-        <v>104</v>
+        <f t="shared" si="11"/>
+        <v>525</v>
       </c>
       <c r="C385" t="s">
         <v>382</v>
@@ -7336,10 +8113,12 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1326</v>
       </c>
       <c r="B386">
-        <v>105</v>
+        <f t="shared" si="11"/>
+        <v>526</v>
       </c>
       <c r="C386" t="s">
         <v>383</v>
@@ -7350,10 +8129,12 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>7</v>
+        <f t="shared" ref="A387:A450" si="12">SUM(800,B387)</f>
+        <v>1327</v>
       </c>
       <c r="B387">
-        <v>106</v>
+        <f t="shared" ref="B387:B450" si="13">ROW() + 140</f>
+        <v>527</v>
       </c>
       <c r="C387" t="s">
         <v>384</v>
@@ -7364,10 +8145,12 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>1328</v>
       </c>
       <c r="B388">
-        <v>107</v>
+        <f t="shared" si="13"/>
+        <v>528</v>
       </c>
       <c r="C388" t="s">
         <v>385</v>
@@ -7378,10 +8161,12 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1329</v>
       </c>
       <c r="B389">
-        <v>108</v>
+        <f t="shared" si="13"/>
+        <v>529</v>
       </c>
       <c r="C389" t="s">
         <v>386</v>
@@ -7392,10 +8177,12 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>1330</v>
       </c>
       <c r="B390">
-        <v>109</v>
+        <f t="shared" si="13"/>
+        <v>530</v>
       </c>
       <c r="C390" t="s">
         <v>387</v>
@@ -7406,10 +8193,12 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1331</v>
       </c>
       <c r="B391">
-        <v>110</v>
+        <f t="shared" si="13"/>
+        <v>531</v>
       </c>
       <c r="C391" t="s">
         <v>388</v>
@@ -7420,10 +8209,12 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>1332</v>
       </c>
       <c r="B392">
-        <v>111</v>
+        <f t="shared" si="13"/>
+        <v>532</v>
       </c>
       <c r="C392" t="s">
         <v>389</v>
@@ -7434,10 +8225,12 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1333</v>
       </c>
       <c r="B393">
-        <v>112</v>
+        <f t="shared" si="13"/>
+        <v>533</v>
       </c>
       <c r="C393" t="s">
         <v>390</v>
@@ -7448,10 +8241,12 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1334</v>
       </c>
       <c r="B394">
-        <v>113</v>
+        <f t="shared" si="13"/>
+        <v>534</v>
       </c>
       <c r="C394" t="s">
         <v>391</v>
@@ -7462,10 +8257,12 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1335</v>
       </c>
       <c r="B395">
-        <v>114</v>
+        <f t="shared" si="13"/>
+        <v>535</v>
       </c>
       <c r="C395" t="s">
         <v>392</v>
@@ -7476,10 +8273,12 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5</v>
+        <f t="shared" si="12"/>
+        <v>1336</v>
       </c>
       <c r="B396">
-        <v>115</v>
+        <f t="shared" si="13"/>
+        <v>536</v>
       </c>
       <c r="C396" t="s">
         <v>393</v>
@@ -7490,10 +8289,12 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1337</v>
       </c>
       <c r="B397">
-        <v>116</v>
+        <f t="shared" si="13"/>
+        <v>537</v>
       </c>
       <c r="C397" t="s">
         <v>394</v>
@@ -7504,10 +8305,12 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>1338</v>
       </c>
       <c r="B398">
-        <v>117</v>
+        <f t="shared" si="13"/>
+        <v>538</v>
       </c>
       <c r="C398" t="s">
         <v>395</v>
@@ -7518,10 +8321,12 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>1339</v>
       </c>
       <c r="B399">
-        <v>118</v>
+        <f t="shared" si="13"/>
+        <v>539</v>
       </c>
       <c r="C399" t="s">
         <v>396</v>
@@ -7532,10 +8337,12 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>1340</v>
       </c>
       <c r="B400">
-        <v>119</v>
+        <f t="shared" si="13"/>
+        <v>540</v>
       </c>
       <c r="C400" t="s">
         <v>397</v>
@@ -7546,10 +8353,12 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1341</v>
       </c>
       <c r="B401">
-        <v>120</v>
+        <f t="shared" si="13"/>
+        <v>541</v>
       </c>
       <c r="C401" t="s">
         <v>398</v>
@@ -7560,10 +8369,12 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1342</v>
       </c>
       <c r="B402">
-        <v>121</v>
+        <f t="shared" si="13"/>
+        <v>542</v>
       </c>
       <c r="C402" t="s">
         <v>399</v>
@@ -7574,10 +8385,12 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>1343</v>
       </c>
       <c r="B403">
-        <v>122</v>
+        <f t="shared" si="13"/>
+        <v>543</v>
       </c>
       <c r="C403" t="s">
         <v>400</v>
@@ -7588,10 +8401,12 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>1344</v>
       </c>
       <c r="B404">
-        <v>123</v>
+        <f t="shared" si="13"/>
+        <v>544</v>
       </c>
       <c r="C404" t="s">
         <v>401</v>
@@ -7602,10 +8417,12 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1345</v>
       </c>
       <c r="B405">
-        <v>124</v>
+        <f t="shared" si="13"/>
+        <v>545</v>
       </c>
       <c r="C405" t="s">
         <v>402</v>
@@ -7616,10 +8433,12 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1346</v>
       </c>
       <c r="B406">
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>546</v>
       </c>
       <c r="C406" t="s">
         <v>403</v>
@@ -7630,10 +8449,12 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>1347</v>
       </c>
       <c r="B407">
-        <v>126</v>
+        <f t="shared" si="13"/>
+        <v>547</v>
       </c>
       <c r="C407" t="s">
         <v>404</v>
@@ -7644,10 +8465,12 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>1348</v>
       </c>
       <c r="B408">
-        <v>127</v>
+        <f t="shared" si="13"/>
+        <v>548</v>
       </c>
       <c r="C408" t="s">
         <v>405</v>
@@ -7658,10 +8481,12 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1349</v>
       </c>
       <c r="B409">
-        <v>128</v>
+        <f t="shared" si="13"/>
+        <v>549</v>
       </c>
       <c r="C409" t="s">
         <v>406</v>
@@ -7672,10 +8497,12 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1350</v>
       </c>
       <c r="B410">
-        <v>129</v>
+        <f t="shared" si="13"/>
+        <v>550</v>
       </c>
       <c r="C410" t="s">
         <v>407</v>
@@ -7686,10 +8513,12 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>1351</v>
       </c>
       <c r="B411">
-        <v>130</v>
+        <f t="shared" si="13"/>
+        <v>551</v>
       </c>
       <c r="C411" t="s">
         <v>408</v>
@@ -7700,10 +8529,12 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1352</v>
       </c>
       <c r="B412">
-        <v>131</v>
+        <f t="shared" si="13"/>
+        <v>552</v>
       </c>
       <c r="C412" t="s">
         <v>409</v>
@@ -7714,10 +8545,12 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>1353</v>
       </c>
       <c r="B413">
-        <v>132</v>
+        <f t="shared" si="13"/>
+        <v>553</v>
       </c>
       <c r="C413" t="s">
         <v>410</v>
@@ -7728,10 +8561,12 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1354</v>
       </c>
       <c r="B414">
-        <v>133</v>
+        <f t="shared" si="13"/>
+        <v>554</v>
       </c>
       <c r="C414" t="s">
         <v>411</v>
@@ -7742,10 +8577,12 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>1355</v>
       </c>
       <c r="B415">
-        <v>134</v>
+        <f t="shared" si="13"/>
+        <v>555</v>
       </c>
       <c r="C415" t="s">
         <v>412</v>
@@ -7756,10 +8593,12 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1356</v>
       </c>
       <c r="B416">
-        <v>135</v>
+        <f t="shared" si="13"/>
+        <v>556</v>
       </c>
       <c r="C416" t="s">
         <v>413</v>
@@ -7770,10 +8609,12 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>1357</v>
       </c>
       <c r="B417">
-        <v>136</v>
+        <f t="shared" si="13"/>
+        <v>557</v>
       </c>
       <c r="C417" t="s">
         <v>414</v>
@@ -7784,10 +8625,12 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>1358</v>
       </c>
       <c r="B418">
-        <v>137</v>
+        <f t="shared" si="13"/>
+        <v>558</v>
       </c>
       <c r="C418" t="s">
         <v>415</v>
@@ -7798,10 +8641,12 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>1359</v>
       </c>
       <c r="B419">
-        <v>138</v>
+        <f t="shared" si="13"/>
+        <v>559</v>
       </c>
       <c r="C419" t="s">
         <v>416</v>
@@ -7812,10 +8657,12 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>1360</v>
       </c>
       <c r="B420">
-        <v>139</v>
+        <f t="shared" si="13"/>
+        <v>560</v>
       </c>
       <c r="C420" t="s">
         <v>417</v>
@@ -7826,10 +8673,12 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1361</v>
       </c>
       <c r="B421">
-        <v>140</v>
+        <f t="shared" si="13"/>
+        <v>561</v>
       </c>
       <c r="C421" t="s">
         <v>418</v>
@@ -7840,10 +8689,12 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>1362</v>
       </c>
       <c r="B422">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>562</v>
       </c>
       <c r="C422" t="s">
         <v>419</v>
@@ -7854,10 +8705,12 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>1363</v>
       </c>
       <c r="B423">
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>563</v>
       </c>
       <c r="C423" t="s">
         <v>420</v>
@@ -7868,10 +8721,12 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1364</v>
       </c>
       <c r="B424">
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>564</v>
       </c>
       <c r="C424" t="s">
         <v>421</v>
@@ -7882,10 +8737,12 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1365</v>
       </c>
       <c r="B425">
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>565</v>
       </c>
       <c r="C425" t="s">
         <v>422</v>
@@ -7896,10 +8753,12 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>1366</v>
       </c>
       <c r="B426">
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>566</v>
       </c>
       <c r="C426" t="s">
         <v>423</v>
@@ -7910,10 +8769,12 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>1367</v>
       </c>
       <c r="B427">
-        <v>6</v>
+        <f t="shared" si="13"/>
+        <v>567</v>
       </c>
       <c r="C427" t="s">
         <v>424</v>
@@ -7924,10 +8785,12 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1368</v>
       </c>
       <c r="B428">
-        <v>7</v>
+        <f t="shared" si="13"/>
+        <v>568</v>
       </c>
       <c r="C428" t="s">
         <v>425</v>
@@ -7938,10 +8801,12 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>1369</v>
       </c>
       <c r="B429">
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>569</v>
       </c>
       <c r="C429" t="s">
         <v>426</v>
@@ -7952,10 +8817,12 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>8</v>
+        <f t="shared" si="12"/>
+        <v>1370</v>
       </c>
       <c r="B430">
-        <v>9</v>
+        <f t="shared" si="13"/>
+        <v>570</v>
       </c>
       <c r="C430" t="s">
         <v>427</v>
@@ -7966,10 +8833,12 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>1371</v>
       </c>
       <c r="B431">
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>571</v>
       </c>
       <c r="C431" t="s">
         <v>428</v>
@@ -7980,10 +8849,12 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>1372</v>
       </c>
       <c r="B432">
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>572</v>
       </c>
       <c r="C432" t="s">
         <v>429</v>
@@ -7994,10 +8865,12 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1373</v>
       </c>
       <c r="B433">
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>573</v>
       </c>
       <c r="C433" t="s">
         <v>274</v>
@@ -8008,10 +8881,12 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1374</v>
       </c>
       <c r="B434">
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>574</v>
       </c>
       <c r="C434" t="s">
         <v>430</v>
@@ -8022,10 +8897,12 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1375</v>
       </c>
       <c r="B435">
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>575</v>
       </c>
       <c r="C435" t="s">
         <v>431</v>
@@ -8036,10 +8913,12 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1376</v>
       </c>
       <c r="B436">
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>576</v>
       </c>
       <c r="C436" t="s">
         <v>432</v>
@@ -8050,10 +8929,12 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>1377</v>
       </c>
       <c r="B437">
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>577</v>
       </c>
       <c r="C437" t="s">
         <v>433</v>
@@ -8064,10 +8945,12 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>1378</v>
       </c>
       <c r="B438">
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>578</v>
       </c>
       <c r="C438" t="s">
         <v>434</v>
@@ -8078,10 +8961,12 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>1379</v>
       </c>
       <c r="B439">
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>579</v>
       </c>
       <c r="C439" t="s">
         <v>435</v>
@@ -8092,10 +8977,12 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>1380</v>
       </c>
       <c r="B440">
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>580</v>
       </c>
       <c r="C440" t="s">
         <v>436</v>
@@ -8106,10 +8993,12 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>1381</v>
       </c>
       <c r="B441">
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>581</v>
       </c>
       <c r="C441" t="s">
         <v>437</v>
@@ -8120,10 +9009,12 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>1382</v>
       </c>
       <c r="B442">
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>582</v>
       </c>
       <c r="C442" t="s">
         <v>438</v>
@@ -8134,10 +9025,12 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1383</v>
       </c>
       <c r="B443">
-        <v>22</v>
+        <f t="shared" si="13"/>
+        <v>583</v>
       </c>
       <c r="C443" t="s">
         <v>439</v>
@@ -8148,10 +9041,12 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>1384</v>
       </c>
       <c r="B444">
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>584</v>
       </c>
       <c r="C444" t="s">
         <v>440</v>
@@ -8162,10 +9057,12 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>1385</v>
       </c>
       <c r="B445">
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>585</v>
       </c>
       <c r="C445" t="s">
         <v>441</v>
@@ -8176,10 +9073,12 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>1386</v>
       </c>
       <c r="B446">
-        <v>25</v>
+        <f t="shared" si="13"/>
+        <v>586</v>
       </c>
       <c r="C446" t="s">
         <v>442</v>
@@ -8190,10 +9089,12 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>1387</v>
       </c>
       <c r="B447">
-        <v>26</v>
+        <f t="shared" si="13"/>
+        <v>587</v>
       </c>
       <c r="C447" t="s">
         <v>443</v>
@@ -8204,10 +9105,12 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>1388</v>
       </c>
       <c r="B448">
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>588</v>
       </c>
       <c r="C448" t="s">
         <v>444</v>
@@ -8218,10 +9121,12 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>1389</v>
       </c>
       <c r="B449">
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>589</v>
       </c>
       <c r="C449" t="s">
         <v>445</v>
@@ -8232,10 +9137,12 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>1390</v>
       </c>
       <c r="B450">
-        <v>29</v>
+        <f t="shared" si="13"/>
+        <v>590</v>
       </c>
       <c r="C450" t="s">
         <v>446</v>
@@ -8246,10 +9153,12 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>6</v>
+        <f t="shared" ref="A451:A500" si="14">SUM(800,B451)</f>
+        <v>1391</v>
       </c>
       <c r="B451">
-        <v>30</v>
+        <f t="shared" ref="B451:B500" si="15">ROW() + 140</f>
+        <v>591</v>
       </c>
       <c r="C451" t="s">
         <v>447</v>
@@ -8260,10 +9169,12 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>1392</v>
       </c>
       <c r="B452">
-        <v>31</v>
+        <f t="shared" si="15"/>
+        <v>592</v>
       </c>
       <c r="C452" t="s">
         <v>448</v>
@@ -8274,10 +9185,12 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1393</v>
       </c>
       <c r="B453">
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>593</v>
       </c>
       <c r="C453" t="s">
         <v>449</v>
@@ -8288,10 +9201,12 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>1394</v>
       </c>
       <c r="B454">
-        <v>33</v>
+        <f t="shared" si="15"/>
+        <v>594</v>
       </c>
       <c r="C454" t="s">
         <v>450</v>
@@ -8302,10 +9217,12 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>13</v>
+        <f t="shared" si="14"/>
+        <v>1395</v>
       </c>
       <c r="B455">
-        <v>34</v>
+        <f t="shared" si="15"/>
+        <v>595</v>
       </c>
       <c r="C455" t="s">
         <v>451</v>
@@ -8316,10 +9233,12 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>1396</v>
       </c>
       <c r="B456">
-        <v>35</v>
+        <f t="shared" si="15"/>
+        <v>596</v>
       </c>
       <c r="C456" t="s">
         <v>452</v>
@@ -8330,10 +9249,12 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>1397</v>
       </c>
       <c r="B457">
-        <v>36</v>
+        <f t="shared" si="15"/>
+        <v>597</v>
       </c>
       <c r="C457" t="s">
         <v>453</v>
@@ -8344,10 +9265,12 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>1398</v>
       </c>
       <c r="B458">
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>598</v>
       </c>
       <c r="C458" t="s">
         <v>454</v>
@@ -8358,10 +9281,12 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>1399</v>
       </c>
       <c r="B459">
-        <v>38</v>
+        <f t="shared" si="15"/>
+        <v>599</v>
       </c>
       <c r="C459" t="s">
         <v>455</v>
@@ -8372,10 +9297,12 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1400</v>
       </c>
       <c r="B460">
-        <v>39</v>
+        <f t="shared" si="15"/>
+        <v>600</v>
       </c>
       <c r="C460" t="s">
         <v>456</v>
@@ -8386,10 +9313,12 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>1401</v>
       </c>
       <c r="B461">
-        <v>40</v>
+        <f t="shared" si="15"/>
+        <v>601</v>
       </c>
       <c r="C461" t="s">
         <v>457</v>
@@ -8400,10 +9329,12 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1402</v>
       </c>
       <c r="B462">
-        <v>41</v>
+        <f t="shared" si="15"/>
+        <v>602</v>
       </c>
       <c r="C462" t="s">
         <v>458</v>
@@ -8414,10 +9345,12 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1403</v>
       </c>
       <c r="B463">
-        <v>42</v>
+        <f t="shared" si="15"/>
+        <v>603</v>
       </c>
       <c r="C463" t="s">
         <v>459</v>
@@ -8428,10 +9361,12 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>1404</v>
       </c>
       <c r="B464">
-        <v>43</v>
+        <f t="shared" si="15"/>
+        <v>604</v>
       </c>
       <c r="C464" t="s">
         <v>460</v>
@@ -8442,10 +9377,12 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>1405</v>
       </c>
       <c r="B465">
-        <v>44</v>
+        <f t="shared" si="15"/>
+        <v>605</v>
       </c>
       <c r="C465" t="s">
         <v>461</v>
@@ -8456,10 +9393,12 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>1406</v>
       </c>
       <c r="B466">
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>606</v>
       </c>
       <c r="C466" t="s">
         <v>462</v>
@@ -8470,10 +9409,12 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>1407</v>
       </c>
       <c r="B467">
-        <v>46</v>
+        <f t="shared" si="15"/>
+        <v>607</v>
       </c>
       <c r="C467" t="s">
         <v>463</v>
@@ -8484,10 +9425,12 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1408</v>
       </c>
       <c r="B468">
-        <v>47</v>
+        <f t="shared" si="15"/>
+        <v>608</v>
       </c>
       <c r="C468" t="s">
         <v>464</v>
@@ -8498,10 +9441,12 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>1409</v>
       </c>
       <c r="B469">
-        <v>48</v>
+        <f t="shared" si="15"/>
+        <v>609</v>
       </c>
       <c r="C469" t="s">
         <v>465</v>
@@ -8512,10 +9457,12 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1410</v>
       </c>
       <c r="B470">
-        <v>49</v>
+        <f t="shared" si="15"/>
+        <v>610</v>
       </c>
       <c r="C470" t="s">
         <v>466</v>
@@ -8526,10 +9473,12 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>1411</v>
       </c>
       <c r="B471">
-        <v>50</v>
+        <f t="shared" si="15"/>
+        <v>611</v>
       </c>
       <c r="C471" t="s">
         <v>467</v>
@@ -8540,10 +9489,12 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1412</v>
       </c>
       <c r="B472">
-        <v>51</v>
+        <f t="shared" si="15"/>
+        <v>612</v>
       </c>
       <c r="C472" t="s">
         <v>468</v>
@@ -8554,10 +9505,12 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>1413</v>
       </c>
       <c r="B473">
-        <v>52</v>
+        <f t="shared" si="15"/>
+        <v>613</v>
       </c>
       <c r="C473" t="s">
         <v>469</v>
@@ -8568,10 +9521,12 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>1414</v>
       </c>
       <c r="B474">
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>614</v>
       </c>
       <c r="C474" t="s">
         <v>470</v>
@@ -8582,10 +9537,12 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>1415</v>
       </c>
       <c r="B475">
-        <v>54</v>
+        <f t="shared" si="15"/>
+        <v>615</v>
       </c>
       <c r="C475" t="s">
         <v>471</v>
@@ -8596,10 +9553,12 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>1416</v>
       </c>
       <c r="B476">
-        <v>55</v>
+        <f t="shared" si="15"/>
+        <v>616</v>
       </c>
       <c r="C476" t="s">
         <v>472</v>
@@ -8610,10 +9569,12 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>1417</v>
       </c>
       <c r="B477">
-        <v>56</v>
+        <f t="shared" si="15"/>
+        <v>617</v>
       </c>
       <c r="C477" t="s">
         <v>473</v>
@@ -8624,10 +9585,12 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>1418</v>
       </c>
       <c r="B478">
-        <v>57</v>
+        <f t="shared" si="15"/>
+        <v>618</v>
       </c>
       <c r="C478" t="s">
         <v>474</v>
@@ -8638,10 +9601,12 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>1419</v>
       </c>
       <c r="B479">
-        <v>58</v>
+        <f t="shared" si="15"/>
+        <v>619</v>
       </c>
       <c r="C479" t="s">
         <v>475</v>
@@ -8652,10 +9617,12 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>1420</v>
       </c>
       <c r="B480">
-        <v>59</v>
+        <f t="shared" si="15"/>
+        <v>620</v>
       </c>
       <c r="C480" t="s">
         <v>476</v>
@@ -8666,10 +9633,12 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>1421</v>
       </c>
       <c r="B481">
-        <v>60</v>
+        <f t="shared" si="15"/>
+        <v>621</v>
       </c>
       <c r="C481" t="s">
         <v>477</v>
@@ -8680,10 +9649,12 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>1422</v>
       </c>
       <c r="B482">
-        <v>61</v>
+        <f t="shared" si="15"/>
+        <v>622</v>
       </c>
       <c r="C482" t="s">
         <v>478</v>
@@ -8694,10 +9665,12 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>1423</v>
       </c>
       <c r="B483">
-        <v>62</v>
+        <f t="shared" si="15"/>
+        <v>623</v>
       </c>
       <c r="C483" t="s">
         <v>479</v>
@@ -8708,10 +9681,12 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1424</v>
       </c>
       <c r="B484">
-        <v>63</v>
+        <f t="shared" si="15"/>
+        <v>624</v>
       </c>
       <c r="C484" t="s">
         <v>480</v>
@@ -8722,10 +9697,12 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>1425</v>
       </c>
       <c r="B485">
-        <v>64</v>
+        <f t="shared" si="15"/>
+        <v>625</v>
       </c>
       <c r="C485" t="s">
         <v>481</v>
@@ -8736,10 +9713,12 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>12</v>
+        <f t="shared" si="14"/>
+        <v>1426</v>
       </c>
       <c r="B486">
-        <v>65</v>
+        <f t="shared" si="15"/>
+        <v>626</v>
       </c>
       <c r="C486" t="s">
         <v>482</v>
@@ -8750,10 +9729,12 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>7</v>
+        <f t="shared" si="14"/>
+        <v>1427</v>
       </c>
       <c r="B487">
-        <v>66</v>
+        <f t="shared" si="15"/>
+        <v>627</v>
       </c>
       <c r="C487" t="s">
         <v>483</v>
@@ -8764,10 +9745,12 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>1428</v>
       </c>
       <c r="B488">
-        <v>67</v>
+        <f t="shared" si="15"/>
+        <v>628</v>
       </c>
       <c r="C488" t="s">
         <v>484</v>
@@ -8778,10 +9761,12 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>1429</v>
       </c>
       <c r="B489">
-        <v>68</v>
+        <f t="shared" si="15"/>
+        <v>629</v>
       </c>
       <c r="C489" t="s">
         <v>485</v>
@@ -8792,10 +9777,12 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>1430</v>
       </c>
       <c r="B490">
-        <v>69</v>
+        <f t="shared" si="15"/>
+        <v>630</v>
       </c>
       <c r="C490" t="s">
         <v>486</v>
@@ -8806,10 +9793,12 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>8</v>
+        <f t="shared" si="14"/>
+        <v>1431</v>
       </c>
       <c r="B491">
-        <v>70</v>
+        <f t="shared" si="15"/>
+        <v>631</v>
       </c>
       <c r="C491" t="s">
         <v>487</v>
@@ -8820,10 +9809,12 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1432</v>
       </c>
       <c r="B492">
-        <v>71</v>
+        <f t="shared" si="15"/>
+        <v>632</v>
       </c>
       <c r="C492" t="s">
         <v>488</v>
@@ -8834,10 +9825,12 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>2</v>
+        <f t="shared" si="14"/>
+        <v>1433</v>
       </c>
       <c r="B493">
-        <v>72</v>
+        <f t="shared" si="15"/>
+        <v>633</v>
       </c>
       <c r="C493" t="s">
         <v>489</v>
@@ -8848,10 +9841,12 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>1434</v>
       </c>
       <c r="B494">
-        <v>73</v>
+        <f t="shared" si="15"/>
+        <v>634</v>
       </c>
       <c r="C494" t="s">
         <v>490</v>
@@ -8862,10 +9857,12 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>1435</v>
       </c>
       <c r="B495">
-        <v>74</v>
+        <f t="shared" si="15"/>
+        <v>635</v>
       </c>
       <c r="C495" t="s">
         <v>491</v>
@@ -8876,10 +9873,12 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>5</v>
+        <f t="shared" si="14"/>
+        <v>1436</v>
       </c>
       <c r="B496">
-        <v>75</v>
+        <f t="shared" si="15"/>
+        <v>636</v>
       </c>
       <c r="C496" t="s">
         <v>492</v>
@@ -8890,10 +9889,12 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>9</v>
+        <f t="shared" si="14"/>
+        <v>1437</v>
       </c>
       <c r="B497">
-        <v>76</v>
+        <f t="shared" si="15"/>
+        <v>637</v>
       </c>
       <c r="C497" t="s">
         <v>493</v>
@@ -8904,10 +9905,12 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3</v>
+        <f t="shared" si="14"/>
+        <v>1438</v>
       </c>
       <c r="B498">
-        <v>77</v>
+        <f t="shared" si="15"/>
+        <v>638</v>
       </c>
       <c r="C498" t="s">
         <v>494</v>
@@ -8918,10 +9921,12 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>1439</v>
       </c>
       <c r="B499">
-        <v>78</v>
+        <f t="shared" si="15"/>
+        <v>639</v>
       </c>
       <c r="C499" t="s">
         <v>495</v>
@@ -8932,10 +9937,12 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>1440</v>
       </c>
       <c r="B500">
-        <v>79</v>
+        <f t="shared" si="15"/>
+        <v>640</v>
       </c>
       <c r="C500" t="s">
         <v>496</v>
